--- a/数据整理/stocks/其他/ABT-雅培制药.xlsx
+++ b/数据整理/stocks/其他/ABT-雅培制药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/ABT-雅培制药.xlsx
+++ b/数据整理/stocks/其他/ABT-雅培制药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/ABT-雅培制药.xlsx
+++ b/数据整理/stocks/其他/ABT-雅培制药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/ABT-雅培制药.xlsx
+++ b/数据整理/stocks/其他/ABT-雅培制药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1029,14 +1072,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -1045,14 +1178,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -1061,13 +1194,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/ABT-雅培制药.xlsx
+++ b/数据整理/stocks/其他/ABT-雅培制药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.15</v>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -1178,14 +1311,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -1194,14 +1327,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -1210,13 +1343,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/ABT-雅培制药.xlsx
+++ b/数据整理/stocks/其他/ABT-雅培制药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1444,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -1327,14 +1460,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -1343,14 +1476,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
@@ -1359,13 +1492,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/ABT-雅培制药.xlsx
+++ b/数据整理/stocks/其他/ABT-雅培制药.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000369</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0520</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000370</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0520</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -650,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0548</t>
+          <t>0.0717</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -688,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0548</t>
+          <t>0.0717</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +758,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -782,22 +798,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.94</t>
+          <t>81.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0522</t>
+          <t>0.0635</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -820,22 +836,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.94</t>
+          <t>81.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0522</t>
+          <t>0.0635</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -874,7 +890,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -914,22 +930,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>84.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0621</t>
+          <t>0.0758</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -952,22 +968,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>84.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0621</t>
+          <t>0.0758</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1006,7 +1022,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1046,22 +1062,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.01</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0758</t>
+          <t>0.0621</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1084,22 +1100,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.01</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0758</t>
+          <t>0.0621</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1138,7 +1154,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1178,22 +1194,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0635</t>
+          <t>0.0522</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1216,22 +1232,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0635</t>
+          <t>0.0522</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1270,7 +1286,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1310,26 +1326,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0717</t>
+          <t>0.0548</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1348,26 +1364,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0717</t>
+          <t>0.0548</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1381,144 +1397,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1</v>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/ABT-雅培制药.xlsx
+++ b/数据整理/stocks/其他/ABT-雅培制药.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,11 +489,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>0.14</v>
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,27 +678,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
+          <t>广发全球医疗保健（QDII）人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0717</t>
+          <t>0.0693</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -699,30 +716,106 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
+          <t>广发全球医疗保健（QDII）美元A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0717</t>
+          <t>0.0690</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016280</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016281</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -798,12 +891,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -813,7 +906,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0635</t>
+          <t>0.0717</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -836,12 +929,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -851,7 +944,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0635</t>
+          <t>0.0717</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -930,26 +1023,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.01</t>
+          <t>81.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0758</t>
+          <t>0.0635</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -968,26 +1061,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.01</t>
+          <t>81.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0758</t>
+          <t>0.0635</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1115,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1062,22 +1155,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>84.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0621</t>
+          <t>0.0758</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1100,22 +1193,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>84.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0621</t>
+          <t>0.0758</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1194,26 +1287,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.94</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0522</t>
+          <t>0.0621</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1232,26 +1325,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.94</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0522</t>
+          <t>0.0621</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1326,26 +1419,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0548</t>
+          <t>0.0522</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1364,26 +1457,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0548</t>
+          <t>0.0522</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1392,6 +1485,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/ABT-雅培制药.xlsx
+++ b/数据整理/stocks/其他/ABT-雅培制药.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -505,11 +506,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0.14</v>
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,166 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,22 +832,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>80.87</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0693</t>
+          <t>0.0774</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -721,22 +870,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>80.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0690</t>
+          <t>0.0774</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -759,22 +908,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>80.87</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -797,22 +946,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>80.87</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -830,7 +979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -886,27 +1035,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
+          <t>广发全球医疗保健（QDII）人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0717</t>
+          <t>0.0693</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -924,30 +1073,106 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
+          <t>广发全球医疗保健（QDII）美元A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0717</t>
+          <t>0.0690</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016280</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016281</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1023,12 +1248,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1038,7 +1263,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0635</t>
+          <t>0.0717</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1061,12 +1286,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1076,7 +1301,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0635</t>
+          <t>0.0717</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1155,26 +1380,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.01</t>
+          <t>81.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0758</t>
+          <t>0.0635</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1193,26 +1418,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.01</t>
+          <t>81.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0758</t>
+          <t>0.0635</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1247,7 +1472,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1287,22 +1512,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>84.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0621</t>
+          <t>0.0758</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1325,22 +1550,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>84.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0621</t>
+          <t>0.0758</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1419,26 +1644,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.94</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0522</t>
+          <t>0.0621</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1457,26 +1682,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.94</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0522</t>
+          <t>0.0621</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1551,26 +1776,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0548</t>
+          <t>0.0522</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1589,26 +1814,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0548</t>
+          <t>0.0522</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1624,51 +1849,51 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1688,25 +1913,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0520</t>
+          <t>0.0548</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1726,24 +1951,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0520</t>
+          <t>0.0548</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>